--- a/df_2/df_2_6.xlsx
+++ b/df_2/df_2_6.xlsx
@@ -647,357 +647,357 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.1836 %</t>
+          <t>1,1836</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.6901 %</t>
+          <t>0,6901</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.9851 %</t>
+          <t>0,9851</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.668 %</t>
+          <t>0,668</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.8516 %</t>
+          <t>0,8516</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0135 %</t>
+          <t>1,0135</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.8661 %</t>
+          <t>0,8661</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.8785 %</t>
+          <t>0,8785</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.7252 %</t>
+          <t>0,7252</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.6801 %</t>
+          <t>0,6801</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.6839 %</t>
+          <t>0,6839</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.7055 %</t>
+          <t>0,7055</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.9027 %</t>
+          <t>0,9027</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.1841 %</t>
+          <t>1,1841</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.552 %</t>
+          <t>0,552</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.6724 %</t>
+          <t>0,6724</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.5376 %</t>
+          <t>0,5376</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.5684 %</t>
+          <t>0,5684</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.7556 %</t>
+          <t>0,7556</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.3483 %</t>
+          <t>0,3483</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.8356 %</t>
+          <t>0,8356</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0.7199 %</t>
+          <t>0,7199</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.7449 %</t>
+          <t>0,7449</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0.6337 %</t>
+          <t>0,6337</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>1.0048 %</t>
+          <t>1,0048</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.7969 %</t>
+          <t>0,7969</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.6869 %</t>
+          <t>0,6869</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0.4909 %</t>
+          <t>0,4909</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.886 %</t>
+          <t>0,886</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.8672 %</t>
+          <t>0,8672</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0.5826 %</t>
+          <t>0,5826</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0.6166 %</t>
+          <t>0,6166</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.6945 %</t>
+          <t>0,6945</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.5554 %</t>
+          <t>0,5554</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>0.8355 %</t>
+          <t>0,8355</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>0.2045 %</t>
+          <t>0,2045</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>0.6065 %</t>
+          <t>0,6065</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.5427 %</t>
+          <t>0,5427</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>0.2669 %</t>
+          <t>0,2669</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>0.2702 %</t>
+          <t>0,2702</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.5176 %</t>
+          <t>0,5176</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>0.3406 %</t>
+          <t>0,3406</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>0.3906 %</t>
+          <t>0,3906</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.2853 %</t>
+          <t>0,2853</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>0.6865 %</t>
+          <t>0,6865</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>0.5321 %</t>
+          <t>0,5321</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>0.4496 %</t>
+          <t>0,4496</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>0.7452 %</t>
+          <t>0,7452</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>0.4884 %</t>
+          <t>0,4884</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>0.4576 %</t>
+          <t>0,4576</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>0.2422 %</t>
+          <t>0,2422</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>0.4727 %</t>
+          <t>0,4727</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>0.5142 %</t>
+          <t>0,5142</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>0.3762 %</t>
+          <t>0,3762</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>0.3618 %</t>
+          <t>0,3618</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>0.4828 %</t>
+          <t>0,4828</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>0.4549 %</t>
+          <t>0,4549</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>0.5332 %</t>
+          <t>0,5332</t>
         </is>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>0.385 %</t>
+          <t>0,385</t>
         </is>
       </c>
       <c r="BI2" t="inlineStr">
         <is>
-          <t>0.6442 %</t>
+          <t>0,6442</t>
         </is>
       </c>
       <c r="BJ2" t="inlineStr">
         <is>
-          <t>0.4079 %</t>
+          <t>0,4079</t>
         </is>
       </c>
       <c r="BK2" t="inlineStr">
         <is>
-          <t>1.0979 %</t>
+          <t>1,0979</t>
         </is>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>0.837 %</t>
+          <t>0,837</t>
         </is>
       </c>
       <c r="BM2" t="inlineStr">
         <is>
-          <t>0.4541 %</t>
+          <t>0,4541</t>
         </is>
       </c>
       <c r="BN2" t="inlineStr">
         <is>
-          <t>0.4932 %</t>
+          <t>0,4932</t>
         </is>
       </c>
       <c r="BO2" t="inlineStr">
         <is>
-          <t>0.4632 %</t>
+          <t>0,4632</t>
         </is>
       </c>
       <c r="BP2" t="inlineStr">
         <is>
-          <t>0.5155 %</t>
+          <t>0,5155</t>
         </is>
       </c>
       <c r="BQ2" t="inlineStr">
         <is>
-          <t>0.6948 %</t>
+          <t>0,6948</t>
         </is>
       </c>
       <c r="BR2" t="inlineStr">
         <is>
-          <t>0.4442 %</t>
+          <t>0,4442</t>
         </is>
       </c>
       <c r="BS2" t="inlineStr">
         <is>
-          <t>0.8392 %</t>
+          <t>0,8392</t>
         </is>
       </c>
       <c r="BT2" t="inlineStr">
         <is>
-          <t>1.6163 %</t>
+          <t>1,6163</t>
         </is>
       </c>
     </row>
@@ -1009,232 +1009,232 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.775 %</t>
+          <t>0,775</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.5261 %</t>
+          <t>0,5261</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.3159 %</t>
+          <t>0,3159</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.4597 %</t>
+          <t>0,4597</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.4072 %</t>
+          <t>0,4072</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6324 %</t>
+          <t>0,6324</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.3384 %</t>
+          <t>0,3384</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.3679 %</t>
+          <t>0,3679</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.3195 %</t>
+          <t>0,3195</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.4537 %</t>
+          <t>0,4537</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.5022 %</t>
+          <t>0,5022</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.8815 %</t>
+          <t>0,8815</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.5533 %</t>
+          <t>0,5533</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.4606 %</t>
+          <t>0,4606</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.4803 %</t>
+          <t>0,4803</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.729 %</t>
+          <t>0,729</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.5597 %</t>
+          <t>0,5597</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.4994 %</t>
+          <t>0,4994</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.5027 %</t>
+          <t>0,5027</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1.0008 %</t>
+          <t>1,0008</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.4853 %</t>
+          <t>0,4853</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0.7358 %</t>
+          <t>0,7358</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.6122 %</t>
+          <t>0,6122</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0.6394 %</t>
+          <t>0,6394</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>1.3963 %</t>
+          <t>1,3963</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.5838 %</t>
+          <t>0,5838</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0.6198 %</t>
+          <t>0,6198</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0.509 %</t>
+          <t>0,509</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>1.8429 %</t>
+          <t>1,8429</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0.6541 %</t>
+          <t>0,6541</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0.6352 %</t>
+          <t>0,6352</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0.789 %</t>
+          <t>0,789</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.4983 %</t>
+          <t>0,4983</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.5059 %</t>
+          <t>0,5059</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.5078 %</t>
+          <t>0,5078</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.3097 %</t>
+          <t>0,3097</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0.4125 %</t>
+          <t>0,4125</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.8189 %</t>
+          <t>0,8189</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.5563 %</t>
+          <t>0,5563</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.8653 %</t>
+          <t>0,8653</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.4725 %</t>
+          <t>0,4725</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.4009 %</t>
+          <t>0,4009</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.2421 %</t>
+          <t>0,2421</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.2874 %</t>
+          <t>0,2874</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>0.2574 %</t>
+          <t>0,2574</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>0.316 %</t>
+          <t>0,316</t>
         </is>
       </c>
     </row>
@@ -1246,282 +1246,282 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.864 %</t>
+          <t>1,864</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.4859 %</t>
+          <t>0,4859</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.2427 %</t>
+          <t>0,2427</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.099 %</t>
+          <t>0,099</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.1061 %</t>
+          <t>0,1061</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1212 %</t>
+          <t>0,1212</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.1096 %</t>
+          <t>0,1096</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.0888 %</t>
+          <t>0,0888</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.1158 %</t>
+          <t>0,1158</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.1916 %</t>
+          <t>0,1916</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.252 %</t>
+          <t>0,252</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.2568 %</t>
+          <t>0,2568</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.3897 %</t>
+          <t>0,3897</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.5101 %</t>
+          <t>0,5101</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.5028 %</t>
+          <t>0,5028</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.4468 %</t>
+          <t>0,4468</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.5015 %</t>
+          <t>0,5015</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.6028 %</t>
+          <t>0,6028</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.5258 %</t>
+          <t>0,5258</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.6366 %</t>
+          <t>0,6366</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.8693 %</t>
+          <t>0,8693</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.7181 %</t>
+          <t>0,7181</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.6661 %</t>
+          <t>0,6661</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.6124 %</t>
+          <t>0,6124</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.5018 %</t>
+          <t>0,5018</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.5834 %</t>
+          <t>0,5834</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.542 %</t>
+          <t>0,542</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.4339 %</t>
+          <t>0,4339</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.5145 %</t>
+          <t>0,5145</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.4818 %</t>
+          <t>0,4818</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0.5618 %</t>
+          <t>0,5618</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0.6359 %</t>
+          <t>0,6359</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.648 %</t>
+          <t>0,648</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.6964 %</t>
+          <t>0,6964</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.8426 %</t>
+          <t>0,8426</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0.8465 %</t>
+          <t>0,8465</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>0.8051 %</t>
+          <t>0,8051</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>0.6056 %</t>
+          <t>0,6056</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>0.5945 %</t>
+          <t>0,5945</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>0.5349 %</t>
+          <t>0,5349</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>0.5908 %</t>
+          <t>0,5908</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>0.9646 %</t>
+          <t>0,9646</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>0.9772 %</t>
+          <t>0,9772</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>0.8587 %</t>
+          <t>0,8587</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>0.836 %</t>
+          <t>0,836</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>1.0977 %</t>
+          <t>1,0977</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>1.4436 %</t>
+          <t>1,4436</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>1.3217 %</t>
+          <t>1,3217</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>1.2237 %</t>
+          <t>1,2237</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>1.229 %</t>
+          <t>1,229</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>1.6399 %</t>
+          <t>1,6399</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>1.6867 %</t>
+          <t>1,6867</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
         <is>
-          <t>1.488 %</t>
+          <t>1,488</t>
         </is>
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>1.2025 %</t>
+          <t>1,2025</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>1.1054 %</t>
+          <t>1,1054</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>1.2267 %</t>
+          <t>1,2267</t>
         </is>
       </c>
     </row>
